--- a/Documenti/Scheduling e Cost/GreenLeaf CostBaseline.xlsx
+++ b/Documenti/Scheduling e Cost/GreenLeaf CostBaseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloafeltra/Documenti/GPS/Green-Leaf/Documenti/Scheduling e Cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10061D86-C7F9-8141-8E89-97D7FFBB7E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AADEFDA-3EB3-3E4E-9A0F-11EBD9604A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabella_Attività" sheetId="1" r:id="rId1"/>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -890,7 +890,7 @@
         <v>44865</v>
       </c>
       <c r="E2" s="7">
-        <v>44952</v>
+        <v>44935</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>9</v>
